--- a/UnitTests/TuningCorrector/test_10 Manual SLS/9/Test_10_SLS.xlsx
+++ b/UnitTests/TuningCorrector/test_10 Manual SLS/9/Test_10_SLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4bda48a8e8bf62b/2021LaneLeeCCIFall2021/Github/MSRESOLVESG/UnitTests/TuningCorrector/test_10 Manual SLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanel\OneDrive\2021LaneLeeCCIFall2021\Github\MSRESOLVESG\UnitTests\TuningCorrector\test_10 Manual SLS\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="523" documentId="13_ncr:40009_{2AE2FE10-F754-4E12-AD7D-77D7A5496061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBACDA8-9508-4C36-A920-CB269C77D02A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59369075-CA09-4F54-AC75-9FFAA274F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="825" windowWidth="27495" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22035" yWindow="930" windowWidth="28800" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_10_SLS - Copy" sheetId="1" r:id="rId1"/>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S133" sqref="S133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,11 +1326,11 @@
         <v>39</v>
       </c>
       <c r="U9" s="8">
-        <v>11.373388737867817</v>
+        <v>13.217722050000001</v>
       </c>
       <c r="V9">
         <f t="shared" ref="V9:V16" si="0">U9^-1</f>
-        <v>8.7924542372361678E-2</v>
+        <v>7.5656001557393923E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3">
-        <v>11.373388737867817</v>
+        <v>13.217722050000001</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2806,7 +2806,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1">
         <f>K47*K48</f>
-        <v>0.71488794869381844</v>
+        <v>0.83081572436439943</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -5491,7 +5491,7 @@
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
       <c r="K139" s="3">
-        <v>11.373388737867817</v>
+        <v>13.217722050000001</v>
       </c>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
@@ -5514,7 +5514,7 @@
       <c r="J140" s="13"/>
       <c r="K140" s="13">
         <f>K139*K138</f>
-        <v>-0.26350013192148186</v>
+        <v>-0.30622988312007859</v>
       </c>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
